--- a/results/I3_N5_M3_T15_C100_DepCentral_s4_P2_res.xlsx
+++ b/results/I3_N5_M3_T15_C100_DepCentral_s4_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>871.8646384127541</v>
+        <v>1098.690461343004</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007999897003173828</v>
+        <v>0.0009999275207519531</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.33463841274267</v>
+        <v>22.73074255039767</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.458899825088896</v>
+        <v>4.673477693221724</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.458899825088896</v>
+        <v>4.633196485827958</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>430.9200000000115</v>
+        <v>614</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>408.61</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,7 +587,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,12 +606,34 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -689,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -700,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -711,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -722,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -733,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -780,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -802,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -813,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -846,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -907,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>7.385362071892702</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.235166958185172</v>
+        <v>8.384048268047589</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.203638383581879</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -955,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -963,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.81602556806575</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -977,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,10 +1034,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1023,13 +1045,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1037,15 +1059,57 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -1159,7 +1223,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000001</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1170,7 +1234,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -1181,7 +1245,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000001</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1192,7 +1256,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1203,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>123.1400000000007</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -1214,7 +1278,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>124.7250000000007</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
@@ -1225,7 +1289,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>135.9750000000007</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
@@ -1236,7 +1300,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>137.5650000000007</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
@@ -1247,7 +1311,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>125.9600000000007</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
@@ -1258,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>48.07000000000073</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
@@ -1269,7 +1333,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>46.66000000000073</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -1280,7 +1344,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>49.43500000000073</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -1291,7 +1355,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>46.91500000000073</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -1302,7 +1366,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>42.86500000000073</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
@@ -1313,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>46.63000000000007</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23">
@@ -1324,7 +1388,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>48.8</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24">
@@ -1335,7 +1399,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>46.7</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25">
@@ -1346,7 +1410,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>51</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26">
@@ -1357,7 +1421,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>47.43000000000007</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27">
@@ -1368,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>107.9650000000005</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
@@ -1379,7 +1443,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>110.4800000000004</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -1390,7 +1454,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>112.6100000000005</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
@@ -1401,7 +1465,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>109.6</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -1412,7 +1476,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>104.7650000000004</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
@@ -1423,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>107.9650000000005</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33">
@@ -1434,7 +1498,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>110.4800000000004</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34">
@@ -1445,7 +1509,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>112.6100000000005</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35">
@@ -1456,7 +1520,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>109.6</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36">
@@ -1467,7 +1531,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>104.7650000000004</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37">
@@ -1478,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>123.1400000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1489,7 +1553,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>124.7250000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1500,7 +1564,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>135.9750000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1511,7 +1575,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>137.5650000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1522,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>125.9600000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1533,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>107.9950000000001</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43">
@@ -1544,7 +1608,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>105.5100000000001</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44">
@@ -1555,7 +1619,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>104.6650000000001</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45">
@@ -1566,7 +1630,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>104.5050000000001</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46">
@@ -1577,7 +1641,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>96.60500000000008</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1624,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>7.965000000000458</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -1635,7 +1699,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>10.48000000000044</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -1646,7 +1710,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.61000000000045</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
@@ -1657,7 +1721,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>9.6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -1668,7 +1732,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.765000000000441</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -1679,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>23.14000000000073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1690,7 +1754,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>24.72500000000073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1701,7 +1765,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>35.97500000000073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1712,7 +1776,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>37.56500000000074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1723,7 +1787,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>25.96000000000072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1734,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7.995000000000083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1745,7 +1809,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.510000000000066</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1756,7 +1820,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>4.665000000000081</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -1767,7 +1831,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.505000000000077</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -1778,7 +1842,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1825,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1836,7 +1900,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1847,7 +1911,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1858,7 +1922,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1869,7 +1933,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1880,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1891,7 +1955,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>7.045</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1902,7 +1966,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1913,7 +1977,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1924,7 +1988,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>6.74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1935,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7.925000000000001</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -1946,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>11.74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1957,7 +2021,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>7.57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1968,7 +2032,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.945</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1979,7 +2043,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>13.115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -1990,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>15.845</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2065,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.515</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -2012,7 +2076,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>15.96</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2023,7 +2087,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>22.21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -2034,7 +2098,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>26.635</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2045,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2056,7 +2120,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2067,7 +2131,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2078,7 +2142,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2089,7 +2153,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2103,7 +2167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2130,7 +2194,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2141,10 +2205,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2152,10 +2216,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2163,10 +2227,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2174,10 +2238,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2185,10 +2249,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2196,10 +2260,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2207,10 +2271,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2218,10 +2282,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2232,53 +2296,9 @@
         <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
         <v>1</v>
       </c>
     </row>
